--- a/Example/例程功能说明.xlsx
+++ b/Example/例程功能说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>文件夹名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,7 +168,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>13-FFT_Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFT例程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>本例程主要作用是，展示如何使用单片机的双核同时运行程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-Specifies_Variable_Or_Code_Location_Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定变量或代码位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本例程主要作用是，展示如何使用ILLD底层自带的数学库来进行软件FFT计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本例程主要作用是，展示如何控制变量或者代码位置，来提高性能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,16 +542,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.125" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="79.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,7 +695,29 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Example/例程功能说明.xlsx
+++ b/Example/例程功能说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>文件夹名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,7 +192,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>15-Cpu1_Handles_Interrupts_Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用CPU1处理中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>本例程主要作用是，展示如何控制变量或者代码位置，来提高性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本例程主要作用是，展示如何设置使得CPU1来处理中断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,7 +729,18 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
